--- a/sprint-1-bd/exercicios/livros/modelagem-livros.xlsx
+++ b/sprint-1-bd/exercicios/livros/modelagem-livros.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Livros</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>roberto@possarle.com</t>
+  </si>
+  <si>
+    <t>Ativo</t>
   </si>
 </sst>
 </file>
@@ -221,17 +224,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -259,31 +253,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -565,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,194 +583,208 @@
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="E1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
         <v>28773</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
         <v>36664</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
         <v>3</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23">
         <v>7444</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="20"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="B10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <v>1</v>
-      </c>
-      <c r="B12" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>2</v>
       </c>
-      <c r="B13" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
         <v>3</v>
       </c>
-      <c r="B14" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="28"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
-        <v>1</v>
-      </c>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="16">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="16">
         <v>2</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="18">
         <v>3</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E1:I1"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A10:B10"/>
   </mergeCells>

--- a/sprint-1-bd/exercicios/livros/modelagem-livros.xlsx
+++ b/sprint-1-bd/exercicios/livros/modelagem-livros.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D210BC-258A-4A4F-AF3D-6774FC6E6A08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="livros" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Livros</t>
   </si>
@@ -78,9 +79,6 @@
     <t>Generos</t>
   </si>
   <si>
-    <t>LivrosGeneros</t>
-  </si>
-  <si>
     <t>Roberto</t>
   </si>
   <si>
@@ -88,12 +86,15 @@
   </si>
   <si>
     <t>Ativo</t>
+  </si>
+  <si>
+    <t>draw.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,11 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,218 +581,198 @@
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
         <v>28773</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10">
         <v>36664</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
         <v>3</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="I5" s="15">
         <v>0</v>
       </c>
-      <c r="I5" s="23">
+      <c r="J5" s="23">
         <v>7444</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="28"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>1</v>
       </c>
-      <c r="B12" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>2</v>
       </c>
-      <c r="B13" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>3</v>
       </c>
-      <c r="B14" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="28"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>1</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>2</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>3</v>
-      </c>
-      <c r="B20" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A16:B16"/>
+  <mergeCells count="3">
+    <mergeCell ref="F1:J1"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
